--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints0.500000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints0.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>9.228589674875099e-39</v>
+        <v>9.062601969094169e-39</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>9.160081241339462e-39</v>
+        <v>9.218538688080383e-39</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>9.176802147206547e-39</v>
+        <v>9.408115844762093e-39</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>9.271969825532645e-39</v>
+        <v>9.629007012650291e-39</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>9.43880170937407e-39</v>
+        <v>9.878885765256686e-39</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>9.670515231787166e-39</v>
+        <v>1.015542567609277e-38</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>9.960327825828692e-39</v>
+        <v>1.045630031867044e-38</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>1.030145692455423e-38</v>
+        <v>1.07791832665004e-38</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.068711996102046e-38</v>
+        <v>1.11217480930945e-38</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.11105343682843e-38</v>
+        <v>1.148166837196473e-38</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.156491757940099e-38</v>
+        <v>1.185661767662161e-38</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.20434870274274e-38</v>
+        <v>1.224426958057711e-38</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.253946014542054e-38</v>
+        <v>1.264229765734323e-38</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.304605436643544e-38</v>
+        <v>1.304837548043043e-38</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.355648712352907e-38</v>
+        <v>1.346017662335069e-38</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.40639758497578e-38</v>
+        <v>1.387537465961552e-38</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.456173797817861e-38</v>
+        <v>1.429164316273694e-38</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.504299094184653e-38</v>
+        <v>1.470665570622535e-38</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.550114497263599e-38</v>
+        <v>1.511811418209734e-38</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.59334874363907e-38</v>
+        <v>1.552428996011557e-38</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.63408964116335e-38</v>
+        <v>1.592398181791e-38</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.672438538566065e-38</v>
+        <v>1.631600842210307e-38</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.70849678457678e-38</v>
+        <v>1.669918843931668e-38</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.742365727925103e-38</v>
+        <v>1.707234053617321e-38</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.774146717340512e-38</v>
+        <v>1.743428337929358e-38</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.803941101552618e-38</v>
+        <v>1.778383563530019e-38</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.831850229291021e-38</v>
+        <v>1.811981597081535e-38</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.857975449285214e-38</v>
+        <v>1.844104305246011e-38</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.8824181102648e-38</v>
+        <v>1.874633554685678e-38</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.905279560959346e-38</v>
+        <v>1.903451212062729e-38</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.926661150098443e-38</v>
+        <v>1.930439144039388e-38</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.9466642264116e-38</v>
+        <v>1.955479217277771e-38</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.965390138628413e-38</v>
+        <v>1.978453298440106e-38</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.982940235478469e-38</v>
+        <v>1.999243254188611e-38</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.999392212139461e-38</v>
+        <v>2.017741019674067e-38</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>2.014665456729999e-38</v>
+        <v>2.033905915818398e-38</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>2.02861438474846e-38</v>
+        <v>2.047724920112564e-38</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>2.041093213596076e-38</v>
+        <v>2.059185094370461e-38</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>2.051956160674138e-38</v>
+        <v>2.068273500406041e-38</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>2.061057443383916e-38</v>
+        <v>2.074977200033238e-38</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>2.068251279126689e-38</v>
+        <v>2.079283255065989e-38</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>2.073391885303709e-38</v>
+        <v>2.081178727318216e-38</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>2.076333479316257e-38</v>
+        <v>2.080650678603857e-38</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>2.076930278565604e-38</v>
+        <v>2.077686170736845e-38</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>2.075036500453017e-38</v>
+        <v>2.072272265531116e-38</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>2.070506362379771e-38</v>
+        <v>2.064396024800603e-38</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>2.063194081747136e-38</v>
+        <v>2.05404451035924e-38</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>2.052953875956368e-38</v>
+        <v>2.041204784020939e-38</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>2.039639962408763e-38</v>
+        <v>2.025863907599669e-38</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>2.023131226811537e-38</v>
+        <v>2.008024926416128e-38</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>2.003623690172802e-38</v>
+        <v>1.987896369468784e-38</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.981533384610084e-38</v>
+        <v>1.965829319082067e-38</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.957280767886489e-38</v>
+        <v>1.942177725119649e-38</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.931286297765108e-38</v>
+        <v>1.917295537445195e-38</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.903970432009141e-38</v>
+        <v>1.891536705922468e-38</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.875753628381682e-38</v>
+        <v>1.865255180415133e-38</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.847056344645858e-38</v>
+        <v>1.838804910786887e-38</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.818299038564761e-38</v>
+        <v>1.812539846901393e-38</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.789902167901594e-38</v>
+        <v>1.78681393862242e-38</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.762286190419449e-38</v>
+        <v>1.761981135813628e-38</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.735871563881419e-38</v>
+        <v>1.738395388338685e-38</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.711067050804149e-38</v>
+        <v>1.716399861598079e-38</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.687993786445749e-38</v>
+        <v>1.696072493098935e-38</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.666474527597162e-38</v>
+        <v>1.677216078511422e-38</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.646318184653206e-38</v>
+        <v>1.659620645416574e-38</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.627333668008775e-38</v>
+        <v>1.64307622139549e-38</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.609329888058683e-38</v>
+        <v>1.627372834029201e-38</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.59211575519775e-38</v>
+        <v>1.612300510898742e-38</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.575500179820863e-38</v>
+        <v>1.597649279585206e-38</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.55929207232284e-38</v>
+        <v>1.583209167669627e-38</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.543300343098503e-38</v>
+        <v>1.568770202733041e-38</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.527333902542736e-38</v>
+        <v>1.554122412356539e-38</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.511201661050359e-38</v>
+        <v>1.539055824121159e-38</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.494712529016213e-38</v>
+        <v>1.523360465607952e-38</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.477675416835117e-38</v>
+        <v>1.506826364397952e-38</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.459899234901959e-38</v>
+        <v>1.489243548072256e-38</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.441192893611558e-38</v>
+        <v>1.470402044211897e-38</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.421365303358729e-38</v>
+        <v>1.450091880397903e-38</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.400225374538366e-38</v>
+        <v>1.428103084211379e-38</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.377582017545286e-38</v>
+        <v>1.404225683233356e-38</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.353244142774329e-38</v>
+        <v>1.378249705044886e-38</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.327020660620303e-38</v>
+        <v>1.349965177226987e-38</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.298720481478117e-38</v>
+        <v>1.319162127360786e-38</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.268152515742581e-38</v>
+        <v>1.285630583027301e-38</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.235125673808491e-38</v>
+        <v>1.249160571807539e-38</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.199448866070776e-38</v>
+        <v>1.209542121282648e-38</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.160931002924235e-38</v>
+        <v>1.166565259033636e-38</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.119552113143846e-38</v>
+        <v>1.120238770572083e-38</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.076181723271472e-38</v>
+        <v>1.071708576359884e-38</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.031977476564566e-38</v>
+        <v>1.022488925593679e-38</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>9.880971640988982e-39</v>
+        <v>9.740942564412424e-39</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>9.456985769502422e-39</v>
+        <v>9.28039007070353e-39</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>9.059395061945375e-39</v>
+        <v>8.858376156489696e-39</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>8.699777429075539e-39</v>
+        <v>8.490045203448667e-39</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>8.389710781650817e-39</v>
+        <v>8.190541593258473e-39</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>8.140773030430307e-39</v>
+        <v>7.975009707598281e-39</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>7.96454208617184e-39</v>
+        <v>7.858593928146022e-39</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>7.872595859633679e-39</v>
+        <v>7.856438636580059e-39</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>7.876512261574171e-39</v>
+        <v>7.983688214579019e-39</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>7.987869202751591e-39</v>
+        <v>8.255487043820953e-39</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>4.348996193830268e-41</v>
+        <v>4.375357035783705e-41</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>5.562689354107178e-41</v>
+        <v>5.611150643377944e-41</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>5.265044747857958e-41</v>
+        <v>5.387026815682824e-41</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>6.99133685864789e-41</v>
+        <v>7.043943337891249e-41</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>8.633645881401981e-41</v>
+        <v>8.596437285213624e-41</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>8.747221145206609e-41</v>
+        <v>8.712321280198169e-41</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.39770630312727e-40</v>
+        <v>1.402847084981646e-40</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>3.637258977317355e-40</v>
+        <v>3.650554042497095e-40</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>7.274146179228797e-40</v>
+        <v>7.294152167838789e-40</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>8.869138339490002e-40</v>
+        <v>8.901969933017794e-40</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>9.179865842926886e-40</v>
+        <v>9.199459436360905e-40</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>9.072166482680031e-40</v>
+        <v>9.056640832806254e-40</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>8.629035046858733e-40</v>
+        <v>8.606402342439192e-40</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>8.04882289788101e-40</v>
+        <v>8.046104299310676e-40</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>7.58528200493918e-40</v>
+        <v>7.59854664996381e-40</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>7.259555494260564e-40</v>
+        <v>7.26443857388065e-40</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>7.053417906705721e-40</v>
+        <v>7.032962075323102e-40</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>7.059663315414829e-40</v>
+        <v>7.065898999690833e-40</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>6.786562726100432e-40</v>
+        <v>6.803809175766708e-40</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>6.498249531877863e-40</v>
+        <v>6.489474358118852e-40</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>6.467267231904173e-40</v>
+        <v>6.451482659860907e-40</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>6.322310883282731e-40</v>
+        <v>6.309581227520582e-40</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>6.10229144318704e-40</v>
+        <v>6.095798956166827e-40</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>5.895779583736496e-40</v>
+        <v>5.894499448822705e-40</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>5.690415035604184e-40</v>
+        <v>5.692584455031647e-40</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>5.462903413471e-40</v>
+        <v>5.466397423824971e-40</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>5.191225928384989e-40</v>
+        <v>5.193667702548449e-40</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>4.86637901353507e-40</v>
+        <v>4.866265298471237e-40</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>4.486968081316629e-40</v>
+        <v>4.484327153238075e-40</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>4.052026479225449e-40</v>
+        <v>4.048403327647284e-40</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>3.573502169521787e-40</v>
+        <v>3.571060944964431e-40</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>3.080118887608569e-40</v>
+        <v>3.080477002808139e-40</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>2.601721444771868e-40</v>
+        <v>2.60587166107206e-40</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>2.164966247205978e-40</v>
+        <v>2.173174790557107e-40</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>1.775482546311106e-40</v>
+        <v>1.786617194323666e-40</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.430400985119583e-40</v>
+        <v>1.441666585426938e-40</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>1.129442778765882e-40</v>
+        <v>1.137543198627502e-40</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>8.777252223463451e-41</v>
+        <v>8.812629076690312e-41</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>6.806529978011938e-41</v>
+        <v>6.803609506520054e-41</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>5.361266249429726e-41</v>
+        <v>5.335920385897104e-41</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>4.35164391871015e-41</v>
+        <v>4.316580684771004e-41</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>3.685298710784786e-41</v>
+        <v>3.649628977356799e-41</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>3.269866350586007e-41</v>
+        <v>3.23910383787033e-41</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>3.012982563045257e-41</v>
+        <v>2.989043840526504e-41</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>2.825849617995152e-41</v>
+        <v>2.807215452364235e-41</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>2.668665788736619e-41</v>
+        <v>2.652597687802763e-41</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>2.537229437764897e-41</v>
+        <v>2.521380172853057e-41</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>2.428140320846863e-41</v>
+        <v>2.410590181252218e-41</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>2.337998193749433e-41</v>
+        <v>2.317254986737387e-41</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>2.263402812239643e-41</v>
+        <v>2.238401863045821e-41</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>2.200953932084401e-41</v>
+        <v>2.171058083914654e-41</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>2.147251309050661e-41</v>
+        <v>2.11225092308106e-41</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>2.098894698905357e-41</v>
+        <v>2.059007654282194e-41</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>2.052933902080505e-41</v>
+        <v>2.008744533294871e-41</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>2.008648240489168e-41</v>
+        <v>1.960804833101982e-41</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.966006183266171e-41</v>
+        <v>1.915127469547531e-41</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.924976401298529e-41</v>
+        <v>1.871651532853731e-41</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.8855275654732e-41</v>
+        <v>1.830316113242735e-41</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.847628346677163e-41</v>
+        <v>1.791060300936716e-41</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.811247415797377e-41</v>
+        <v>1.753823186157829e-41</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.776353443720854e-41</v>
+        <v>1.718543859128283e-41</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.742915101334555e-41</v>
+        <v>1.685161410070232e-41</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.710901059525442e-41</v>
+        <v>1.653614929205837e-41</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.680279989180522e-41</v>
+        <v>1.623843506757297e-41</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.651020561186758e-41</v>
+        <v>1.595786232946773e-41</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.623091446431126e-41</v>
+        <v>1.569382197996437e-41</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.596461315800594e-41</v>
+        <v>1.544570492128451e-41</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.571098840182162e-41</v>
+        <v>1.52129020556501e-41</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.546972690462795e-41</v>
+        <v>1.499480428528277e-41</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>1.524051537529462e-41</v>
+        <v>1.479080251240415e-41</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>1.502304052269159e-41</v>
+        <v>1.460028763923616e-41</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>1.481698905568855e-41</v>
+        <v>1.442265056800043e-41</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.462204768315526e-41</v>
+        <v>1.42572822009187e-41</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>1.443790311396141e-41</v>
+        <v>1.410357344021262e-41</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>1.426424205697695e-41</v>
+        <v>1.396091518810407e-41</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>1.410075122107158e-41</v>
+        <v>1.382869834681471e-41</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>1.394711731511499e-41</v>
+        <v>1.370631381856621e-41</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>1.38030270479771e-41</v>
+        <v>1.359315250558041e-41</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>1.366816712852761e-41</v>
+        <v>1.348860531007899e-41</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>1.354222426563629e-41</v>
+        <v>1.339206313428368e-41</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>1.342488516817288e-41</v>
+        <v>1.330291688041617e-41</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>1.331583654500725e-41</v>
+        <v>1.322055745069827e-41</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>1.321476510500912e-41</v>
+        <v>1.314437574735167e-41</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>1.312135755704826e-41</v>
+        <v>1.30737626725981e-41</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>1.303530060999442e-41</v>
+        <v>1.300810912865926e-41</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>1.295628097271744e-41</v>
+        <v>1.294680601775694e-41</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>1.288398535408706e-41</v>
+        <v>1.288924424211284e-41</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>1.281810048482124e-41</v>
+        <v>1.283481475780671e-41</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>1.275839116010308e-41</v>
+        <v>1.278310095763656e-41</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>1.270487557510937e-41</v>
+        <v>1.273431089074271e-41</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>1.265762325097668e-41</v>
+        <v>1.268877912989232e-41</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>1.261670370884161e-41</v>
+        <v>1.264684024785266e-41</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>1.258218646984069e-41</v>
+        <v>1.260882881739091e-41</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>1.25541410551105e-41</v>
+        <v>1.257507941127428e-41</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>1.253263698578759e-41</v>
+        <v>1.254592660226996e-41</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>1.251774378300854e-41</v>
+        <v>1.252170496314519e-41</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>1.250953096790993e-41</v>
+        <v>1.250274906666717e-41</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>1.250806806162829e-41</v>
+        <v>1.24893934856031e-41</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>1.251342458530021e-41</v>
+        <v>1.248197279272018e-41</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>1.252567006006225e-41</v>
+        <v>1.248082156078565e-41</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>1.254487400705097e-41</v>
+        <v>1.248627436256668e-41</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>1.257110594740295e-41</v>
+        <v>1.249866577083052e-41</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>1.260443540225474e-41</v>
+        <v>1.251833035834434e-41</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.26449318927429e-41</v>
+        <v>1.254560269787537e-41</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>1.269266494000401e-41</v>
+        <v>1.25808173621908e-41</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.274770406517466e-41</v>
+        <v>1.262430892405789e-41</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.281011878939135e-41</v>
+        <v>1.267641195624378e-41</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.287997863379069e-41</v>
+        <v>1.273746103151571e-41</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>1.295735311950927e-41</v>
+        <v>1.280779072264092e-41</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.304231176768359e-41</v>
+        <v>1.288773560238655e-41</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.313492409945025e-41</v>
+        <v>1.297763024351984e-41</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.32352596359458e-41</v>
+        <v>1.307780921880801e-41</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.334338789830688e-41</v>
+        <v>1.318860710101831e-41</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.345937840766994e-41</v>
+        <v>1.331035846291784e-41</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.358392654405208e-41</v>
+        <v>1.344393806358753e-41</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.372107156948276e-41</v>
+        <v>1.359310680681902e-41</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.387596494212122e-41</v>
+        <v>1.376258554623627e-41</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>1.40537588691267e-41</v>
+        <v>1.395709578193422e-41</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.425960555765838e-41</v>
+        <v>1.418135901400769e-41</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.449865721487556e-41</v>
+        <v>1.444009674255166e-41</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.477606604793721e-41</v>
+        <v>1.473803046766077e-41</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.509698426400262e-41</v>
+        <v>1.507988168942994e-41</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.546656407023113e-41</v>
+        <v>1.547037190795422e-41</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.588995767378161e-41</v>
+        <v>1.59142226233281e-41</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.637231728181339e-41</v>
+        <v>1.641615533564661e-41</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.691879510148565e-41</v>
+        <v>1.698089154500458e-41</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.753454333995788e-41</v>
+        <v>1.761315275149717e-41</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.822471420438868e-41</v>
+        <v>1.831766045521864e-41</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.899445990193753e-41</v>
+        <v>1.909913615626413e-41</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.984893263976399e-41</v>
+        <v>1.996230135472888e-41</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>2.079328462502648e-41</v>
+        <v>2.091187755070697e-41</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>2.183341546153789e-41</v>
+        <v>2.195339057001518e-41</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>2.298316404799714e-41</v>
+        <v>2.310091026801533e-41</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>2.426115673943003e-41</v>
+        <v>2.437365861608071e-41</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>2.568608590905904e-41</v>
+        <v>2.579092863237555e-41</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>2.727664393010837e-41</v>
+        <v>2.737201333506578e-41</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>2.905152317580161e-41</v>
+        <v>2.913620574231675e-41</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>3.102941601936338e-41</v>
+        <v>3.11027988722948e-41</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>3.322901483401548e-41</v>
+        <v>3.32910857431635e-41</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>3.566901199298243e-41</v>
+        <v>3.57203593730891e-41</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>3.836809986948913e-41</v>
+        <v>3.840991278023822e-41</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>4.134497083675677e-41</v>
+        <v>4.137903898277383e-41</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>4.461831726801015e-41</v>
+        <v>4.464703099886247e-41</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>4.820683153647458e-41</v>
+        <v>4.823318184667117e-41</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>5.212259021006516e-41</v>
+        <v>5.215011128749277e-41</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>5.629662862166182e-41</v>
+        <v>5.632869408659316e-41</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>6.060566582749195e-41</v>
+        <v>6.064501705077208e-41</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>6.492541979975233e-41</v>
+        <v>6.497415720939838e-41</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>6.913160851063382e-41</v>
+        <v>6.919119159183498e-41</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>7.309994993233312e-41</v>
+        <v>7.317119722745072e-41</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>7.670616203704505e-41</v>
+        <v>7.678925114561248e-41</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>7.982596279696566e-41</v>
+        <v>7.992043037568838e-41</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>8.233507018428693e-41</v>
+        <v>8.243981194704249e-41</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>8.410920217120513e-41</v>
+        <v>8.42224728890432e-41</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>8.502407672991526e-41</v>
+        <v>8.514349023105759e-41</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>8.495541183261127e-41</v>
+        <v>8.507794100245164e-41</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>8.377892545148854e-41</v>
+        <v>8.390090223259289e-41</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>8.13826819667138e-41</v>
+        <v>8.149985935787467e-41</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>7.783039267035468e-41</v>
+        <v>7.793882675985099e-41</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>7.33164779647196e-41</v>
+        <v>7.341318430270231e-41</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>6.80384703609414e-41</v>
+        <v>6.812143958728286e-41</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>6.219390237015155e-41</v>
+        <v>6.226210021444554e-41</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>5.59803065034896e-41</v>
+        <v>5.603367378505138e-41</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>4.959521527208723e-41</v>
+        <v>4.963466789995346e-41</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>4.323616118707864e-41</v>
+        <v>4.326359016000743e-41</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>3.710067675959535e-41</v>
+        <v>3.711894816606623e-41</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>3.138629450077714e-41</v>
+        <v>3.139924951899109e-41</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>2.62905469217554e-41</v>
+        <v>2.630300181963484e-41</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>2.201096653366263e-41</v>
+        <v>2.20287126688514e-41</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>1.874508584763694e-41</v>
+        <v>1.877488966750032e-41</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>1.669043737481043e-41</v>
+        <v>1.674004041643512e-41</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>1.59886985831855e-41</v>
+        <v>1.606602592646542e-41</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>1.599994920351963e-41</v>
+        <v>1.610203309841657e-41</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>1.550914325183632e-41</v>
+        <v>1.561397275344822e-41</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>1.328983663228419e-41</v>
+        <v>1.335621027808591e-41</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>9.15710952699086e-42</v>
+        <v>9.147019061103629e-42</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>5.660178859832007e-42</v>
+        <v>5.597477194453242e-42</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>4.279610853650523e-42</v>
+        <v>4.220674938017534e-42</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>4.018448829876384e-42</v>
+        <v>3.98854645990442e-42</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>3.799379493812325e-42</v>
+        <v>3.791427088532669e-42</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>3.393855252851012e-42</v>
+        <v>3.394937615426223e-42</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>2.875814632015411e-42</v>
+        <v>2.876636155802763e-42</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.319567098965587e-42</v>
+        <v>2.314463357653255e-42</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>1.797773929460541e-42</v>
+        <v>1.784642297348706e-42</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>1.350596140869335e-42</v>
+        <v>1.329527712618763e-42</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>9.884421832317987e-43</v>
+        <v>9.604693561351992e-43</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>7.206231974041149e-43</v>
+        <v>6.87673480768028e-43</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>5.564503242428076e-43</v>
+        <v>5.213463393876109e-43</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>5.052347046040149e-43</v>
+        <v>4.716941848639157e-43</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>5.76287479344016e-43</v>
+        <v>5.489232700670547e-43</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>7.789197893192132e-43</v>
+        <v>7.632398478672694e-43</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.122442775385707e-42</v>
+        <v>1.124850171134483e-42</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>1.639860273478348e-42</v>
+        <v>1.666463459754441e-42</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>2.639285029504686e-42</v>
+        <v>2.682083256875432e-42</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>4.443160484075651e-42</v>
+        <v>4.477113478809569e-42</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>6.568061592405975e-42</v>
+        <v>6.580587063830968e-42</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>8.292743292984767e-42</v>
+        <v>8.292555345281326e-42</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>9.363897015981892e-42</v>
+        <v>9.368381182018122e-42</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>1.0124439625575e-41</v>
+        <v>1.014356573217903e-41</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>1.095597556974201e-41</v>
+        <v>1.09912538835868e-41</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>1.224007638197257e-41</v>
+        <v>1.228455814141433e-41</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>1.418453793482006e-41</v>
+        <v>1.42256232494047e-41</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>1.641774062935242e-41</v>
+        <v>1.64465407829579e-41</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>1.844745056469824e-41</v>
+        <v>1.846073692389759e-41</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>1.978143383998651e-41</v>
+        <v>1.978163785404781e-41</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>1.997974617753666e-41</v>
+        <v>1.997459722106906e-41</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>1.9305637686533e-41</v>
+        <v>1.930329274291232e-41</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>1.852582626840716e-41</v>
+        <v>1.853138291739491e-41</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>1.841797101835063e-41</v>
+        <v>1.843339165750659e-41</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>1.955924249720662e-41</v>
+        <v>1.958404558116632e-41</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>2.16660483287162e-41</v>
+        <v>2.170027608578703e-41</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>2.422384085292165e-41</v>
+        <v>2.426885556684507e-41</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>2.671806958562081e-41</v>
+        <v>2.677655360530973e-41</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>2.863418535513256e-41</v>
+        <v>2.871014108640282e-41</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>2.960022191917843e-41</v>
+        <v>2.969807359725233e-41</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>2.977908845408688e-41</v>
+        <v>2.99003125971107e-41</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>2.945909353261008e-41</v>
+        <v>2.960142896499712e-41</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>2.892854572749954e-41</v>
+        <v>2.90859935799301e-41</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>2.846570608330721e-41</v>
+        <v>2.862873331426386e-41</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>2.819109436010634e-41</v>
+        <v>2.834982894455606e-41</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>2.809990088236057e-41</v>
+        <v>2.824667046988432e-41</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>2.818385851244307e-41</v>
+        <v>2.831326046117634e-41</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>2.843470011272687e-41</v>
+        <v>2.854360148935969e-41</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>2.884415854558507e-41</v>
+        <v>2.893169612536197e-41</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>2.940396667339077e-41</v>
+        <v>2.947154694011084e-41</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>3.010585735851742e-41</v>
+        <v>3.015715650453426e-41</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>3.094146794639028e-41</v>
+        <v>3.098242322962985e-41</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>3.188999422703475e-41</v>
+        <v>3.192767817976408e-41</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>3.29059779499405e-41</v>
+        <v>3.294636752404283e-41</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>3.394105856767352e-41</v>
+        <v>3.398877251632441e-41</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>3.494687553280117e-41</v>
+        <v>3.50051744104685e-41</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>3.587506829789039e-41</v>
+        <v>3.594585446033437e-41</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>3.667727631550843e-41</v>
+        <v>3.676109391978159e-41</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>3.730513903822146e-41</v>
+        <v>3.740117404266867e-41</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>3.771029591859679e-41</v>
+        <v>3.781637608285525e-41</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>3.784447955219706e-41</v>
+        <v>3.795707717218532e-41</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>3.767868305976546e-41</v>
+        <v>3.779348052094588e-41</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>3.722663618575705e-41</v>
+        <v>3.733978085295529e-41</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>3.6507814796868e-41</v>
+        <v>3.661608773958812e-41</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>3.554169475979397e-41</v>
+        <v>3.564251075221841e-41</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>3.434775194123203e-41</v>
+        <v>3.443915946222161e-41</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>3.294546220787794e-41</v>
+        <v>3.30261434409719e-41</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>3.13543014264271e-41</v>
+        <v>3.142357225984304e-41</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>2.959374546357717e-41</v>
+        <v>2.965155549021109e-41</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>2.768416460406657e-41</v>
+        <v>2.773107581835496e-41</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>2.565953241507712e-41</v>
+        <v>2.569639521170459e-41</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>2.356440804138033e-41</v>
+        <v>2.359210908930677e-41</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>2.144362957747054e-41</v>
+        <v>2.146308517594135e-41</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>1.934203511783927e-41</v>
+        <v>1.935419119638531e-41</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>1.730446275697806e-41</v>
+        <v>1.731029487541569e-41</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>1.537575058938122e-41</v>
+        <v>1.537626393781229e-41</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>1.360073670954026e-41</v>
+        <v>1.35969661083521e-41</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>1.202425921194762e-41</v>
+        <v>1.201726911181305e-41</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>1.067925045535592e-41</v>
+        <v>1.06701127678383e-41</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>9.549542777183116e-42</v>
+        <v>9.539245446723026e-42</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>8.606312858367329e-42</v>
+        <v>8.595736296477613e-42</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>7.820737366891686e-42</v>
+        <v>7.810654452133296e-42</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>7.163992970739035e-42</v>
+        <v>7.155069048721038e-42</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>6.607256337893078e-42</v>
+        <v>6.600049221272655e-42</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>6.121704136336617e-42</v>
+        <v>6.11666410481907e-42</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>5.678513034052577e-42</v>
+        <v>5.675982834391318e-42</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>5.248934199391933e-42</v>
+        <v>5.249148968090598e-42</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>4.818191515839766e-42</v>
+        <v>4.82126428175434e-42</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>4.401833589069627e-42</v>
+        <v>4.407723809977147e-42</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>4.019383538928843e-42</v>
+        <v>4.027892977768135e-42</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>3.690364485264158e-42</v>
+        <v>3.70113721013585e-42</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>3.434299547922516e-42</v>
+        <v>3.446821932089025e-42</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>3.270711846750802e-42</v>
+        <v>3.284312568636346e-42</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>3.219124501596116e-42</v>
+        <v>3.232974544786705e-42</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>3.299060632305299e-42</v>
+        <v>3.31217328554874e-42</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>3.529640507463293e-42</v>
+        <v>3.540874416134486e-42</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>3.907417244915953e-42</v>
+        <v>3.915647349732613e-42</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>4.394857228744828e-42</v>
+        <v>4.399232961521131e-42</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>4.951596521837452e-42</v>
+        <v>4.951563244232585e-42</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>5.53727118708149e-42</v>
+        <v>5.532570190599636e-42</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>6.111517287363791e-42</v>
+        <v>6.102185793354148e-42</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>6.633970885572016e-42</v>
+        <v>6.620342045228784e-42</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>7.064268044593722e-42</v>
+        <v>7.046970938956106e-42</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>7.362044827315909e-42</v>
+        <v>7.34200446726812e-42</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>7.495007214524114e-42</v>
+        <v>7.473386092016107e-42</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>7.473095900163841e-42</v>
+        <v>7.450988090746426e-42</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>7.32002203108652e-42</v>
+        <v>7.298353457312751e-42</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>7.059504332483017e-42</v>
+        <v>7.039032709019808e-42</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>6.71526152954402e-42</v>
+        <v>6.696576363172155e-42</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>6.311012347460251e-42</v>
+        <v>6.294534937074377e-42</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>5.870475511422227e-42</v>
+        <v>5.856458948030858e-42</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>5.417369746621081e-42</v>
+        <v>5.405898913346593e-42</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>4.975413419570592e-42</v>
+        <v>4.966404994197312e-42</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>4.563517416813921e-42</v>
+        <v>4.556754024732551e-42</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>4.183733156702737e-42</v>
+        <v>4.178983142700068e-42</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>3.834418316344898e-42</v>
+        <v>3.831461985407764e-42</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>3.513930572848456e-42</v>
+        <v>3.512560190163728e-42</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>3.220627603321334e-42</v>
+        <v>3.220647394275926e-42</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>2.952867084871846e-42</v>
+        <v>2.954093235052709e-42</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>2.709006694607906e-42</v>
+        <v>2.711267349802031e-42</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>2.487404109637561e-42</v>
+        <v>2.490539375831982e-42</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>2.286417007068778e-42</v>
+        <v>2.290278950450567e-42</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>2.104403064009789e-42</v>
+        <v>2.108855710966055e-42</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>1.939719957568546e-42</v>
+        <v>1.944639294686441e-42</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>1.790725364853037e-42</v>
+        <v>1.795999338919753e-42</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>1.655776962971447e-42</v>
+        <v>1.661305480974214e-42</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>1.533232429031755e-42</v>
+        <v>1.538927358157845e-42</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>1.421449440141965e-42</v>
+        <v>1.427234607778687e-42</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>1.318785673410225e-42</v>
+        <v>1.324596867144931e-42</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.223598805944534e-42</v>
+        <v>1.229383773564615e-42</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.134386021383726e-42</v>
+        <v>1.140103574157739e-42</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.05057643977707e-42</v>
+        <v>1.056190462161937e-42</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>9.719810227855303e-43</v>
+        <v>9.774580180283283e-43</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>8.984118856632373e-43</v>
+        <v>9.037209683861405e-43</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>8.296811436643576e-43</v>
+        <v>8.34794039864638e-43</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>7.656009120430314e-43</v>
+        <v>7.704919590930588e-43</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>7.059833060534836e-43</v>
+        <v>7.106294527007251e-43</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>6.506404409498519e-43</v>
+        <v>6.550212473168724e-43</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>5.993844319862819e-43</v>
+        <v>6.034820695707436e-43</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>5.520273944169869e-43</v>
+        <v>5.558266460916502e-43</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>5.083814434961106e-43</v>
+        <v>5.118697035088332e-43</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>4.682586944778031e-43</v>
+        <v>4.714259684515403e-43</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>4.314712626162685e-43</v>
+        <v>4.343101675490732e-43</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>3.97831263165655e-43</v>
+        <v>4.00337027430678e-43</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>3.671508113801169e-43</v>
+        <v>3.693212747256063e-43</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>3.392420225138619e-43</v>
+        <v>3.410776360631636e-43</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>3.139170118210067e-43</v>
+        <v>3.15420838072564e-43</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.90987894555745e-43</v>
+        <v>2.92165607383099e-43</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.702667859722619e-43</v>
+        <v>2.711266706240517e-43</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>2.515658013246875e-43</v>
+        <v>2.521187544246489e-43</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>2.346970558672232e-43</v>
+        <v>2.349565854141906e-43</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>2.194726648540059e-43</v>
+        <v>2.194548902219106e-43</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>2.05704743539219e-43</v>
+        <v>2.054283954770902e-43</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>1.932054071770405e-43</v>
+        <v>1.926918278090051e-43</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>1.817867710216153e-43</v>
+        <v>1.810599138468977e-43</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>1.712609503271226e-43</v>
+        <v>1.703473802200449e-43</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>1.614478646437621e-43</v>
+        <v>1.603765326859357e-43</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>1.522584263834401e-43</v>
+        <v>1.510580445580126e-43</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>1.436623805001075e-43</v>
+        <v>1.423597242683818e-43</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.356304582329289e-43</v>
+        <v>1.342503380782822e-43</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.281333908210474e-43</v>
+        <v>1.266986522489307e-43</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.211419095036282e-43</v>
+        <v>1.196734330415666e-43</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.146267455198344e-43</v>
+        <v>1.131434467174275e-43</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.08558630108812e-43</v>
+        <v>1.070774595377332e-43</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.029082945097246e-43</v>
+        <v>1.014442377637215e-43</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>9.764646996173454e-44</v>
+        <v>9.621254765662874e-44</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>9.274388770398979e-44</v>
+        <v>9.135115547767719e-44</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>8.817127897565688e-44</v>
+        <v>8.682882748810739e-44</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>8.389937501588521e-44</v>
+        <v>8.261432994914291e-44</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>7.989890706383664e-44</v>
+        <v>7.867642912201971e-44</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>7.614060635867208e-44</v>
+        <v>7.498389126797274e-44</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>7.25952041395423e-44</v>
+        <v>7.150548264822703e-44</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>6.92334316456085e-44</v>
+        <v>6.82099695240178e-44</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>6.602643205310669e-44</v>
+        <v>6.506656255305733e-44</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>6.295725066320038e-44</v>
+        <v>6.2057312369621e-44</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>6.002236365288147e-44</v>
+        <v>5.917875879641801e-44</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>5.721896628663443e-44</v>
+        <v>5.642821740558121e-44</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>5.45442538289362e-44</v>
+        <v>5.38030037692359e-44</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>5.199542154427359e-44</v>
+        <v>5.130043345951717e-44</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>4.956966469712404e-44</v>
+        <v>4.891782204855089e-44</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>4.726417855197186e-44</v>
+        <v>4.66524851084697e-44</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>4.507615837330099e-44</v>
+        <v>4.450173821140579e-44</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>4.300279942558949e-44</v>
+        <v>4.246289692948568e-44</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>4.104129697332133e-44</v>
+        <v>4.053327683484165e-44</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>3.918884628098019e-44</v>
+        <v>3.871019349960568e-44</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>3.744264261304469e-44</v>
+        <v>3.69909624959048e-44</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>3.579988123399857e-44</v>
+        <v>3.537289939587104e-44</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>3.425775740832514e-44</v>
+        <v>3.385331977163608e-44</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>3.281346640050365e-44</v>
+        <v>3.242953919532752e-44</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>3.146420347501749e-44</v>
+        <v>3.10988732390771e-44</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>3.02071638963498e-44</v>
+        <v>2.985863747501626e-44</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.903954292898027e-44</v>
+        <v>2.87061474752731e-44</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.795853583739302e-44</v>
+        <v>2.763871881198003e-44</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.696133788606811e-44</v>
+        <v>2.665366705726549e-44</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.604514433948853e-44</v>
+        <v>2.57483077832608e-44</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.520715046213701e-44</v>
+        <v>2.491995656209703e-44</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.444455151849404e-44</v>
+        <v>2.416592896590302e-44</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>2.375454277304239e-44</v>
+        <v>2.34835405668099e-44</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>2.313431949026459e-44</v>
+        <v>2.287010693694851e-44</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>2.258107693464153e-44</v>
+        <v>2.232294364844811e-44</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>2.209201037065578e-44</v>
+        <v>2.183936627343962e-44</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>2.166431506278971e-44</v>
+        <v>2.141669038405373e-44</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>2.129518627552453e-44</v>
+        <v>2.105223155242003e-44</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>2.098181927334266e-44</v>
+        <v>2.074330535066925e-44</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>2.07214093207263e-44</v>
+        <v>2.048722735093195e-44</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>2.0511151682157e-44</v>
+        <v>2.028131312533801e-44</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>2.034824162211711e-44</v>
+        <v>2.012287824601816e-44</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>2.022987440508835e-44</v>
+        <v>2.000923828510243e-44</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>2.015325544068624e-44</v>
+        <v>1.993771476028778e-44</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>2.011574513434547e-44</v>
+        <v>1.990572002473948e-44</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>2.011482486284493e-44</v>
+        <v>1.991073732701059e-44</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>2.014797921189855e-44</v>
+        <v>1.995025179625409e-44</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>2.021269276722017e-44</v>
+        <v>2.002174856162286e-44</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>2.030645011452382e-44</v>
+        <v>2.012271275226998e-44</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>2.042673583952335e-44</v>
+        <v>2.025062949734835e-44</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>2.057103452793254e-44</v>
+        <v>2.040298392601076e-44</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>2.073683076546554e-44</v>
+        <v>2.057726116741044e-44</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>2.092160913783598e-44</v>
+        <v>2.077094635070002e-44</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>2.112285423075808e-44</v>
+        <v>2.09815246050328e-44</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>2.13380506299456e-44</v>
+        <v>2.120648105956158e-44</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>2.156468292111224e-44</v>
+        <v>2.144330084343906e-44</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>2.18002356899723e-44</v>
+        <v>2.168946908581863e-44</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>2.204219352223949e-44</v>
+        <v>2.194247091585304e-44</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>2.22880410036275e-44</v>
+        <v>2.219979146269498e-44</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>2.253526271985067e-44</v>
+        <v>2.245891585549789e-44</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>2.27813432566227e-44</v>
+        <v>2.271732922341446e-44</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>2.302376719965727e-44</v>
+        <v>2.297251669559743e-44</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>2.326001913466872e-44</v>
+        <v>2.322196340120019e-44</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>2.348758364737074e-44</v>
+        <v>2.346315446937548e-44</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>2.370394532347705e-44</v>
+        <v>2.369357502927603e-44</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>2.390825664606269e-44</v>
+        <v>2.391236465572483e-44</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>2.411760682044993e-44</v>
+        <v>2.413645498506332e-44</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>2.436000276024997e-44</v>
+        <v>2.439360730995703e-44</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>2.466360607829714e-44</v>
+        <v>2.471173637463628e-44</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>2.505657838742482e-44</v>
+        <v>2.511875692333032e-44</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>2.556708130046759e-44</v>
+        <v>2.564258370026975e-44</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>2.622327643025913e-44</v>
+        <v>2.631113144968412e-44</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>2.705332538963252e-44</v>
+        <v>2.715231491580247e-44</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>2.808538979142318e-44</v>
+        <v>2.819404884285619e-44</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>2.934763124846439e-44</v>
+        <v>2.946424797507445e-44</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>3.086821137358858e-44</v>
+        <v>3.099082705668566e-44</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>3.267529177963244e-44</v>
+        <v>3.280170083192243e-44</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>3.479703407942864e-44</v>
+        <v>3.492478404501336e-44</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>3.725353186697522e-44</v>
+        <v>3.737997988971876e-44</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>4.000942087775602e-44</v>
+        <v>4.013212185291581e-44</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>4.300602326485515e-44</v>
+        <v>4.312289301171921e-44</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>4.61845805033174e-44</v>
+        <v>4.629389632987306e-44</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>4.948633406817951e-44</v>
+        <v>4.958673477111337e-44</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>5.285252543447778e-44</v>
+        <v>5.294301129917577e-44</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>5.622439607725767e-44</v>
+        <v>5.630432887780495e-44</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>5.954318747155546e-44</v>
+        <v>5.961229047073655e-44</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>6.275014109240769e-44</v>
+        <v>6.280849904170639e-44</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>6.579067463500659e-44</v>
+        <v>6.583868526569955e-44</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>6.862927744572009e-44</v>
+        <v>6.866742994201534e-44</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>7.123587997823511e-44</v>
+        <v>7.126469177606225e-44</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>7.35804130968343e-44</v>
+        <v>7.360042987907527e-44</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>7.563280766579145e-44</v>
+        <v>7.564460336228057e-44</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>7.73629945493882e-44</v>
+        <v>7.736717133691214e-44</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>7.874090461190048e-44</v>
+        <v>7.87380929141983e-44</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>7.973646871760552e-44</v>
+        <v>7.972732720536864e-44</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>8.031961773078309e-44</v>
+        <v>8.030483332165525e-44</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>8.046028251571001e-44</v>
+        <v>8.044057037428738e-44</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>8.012839393666477e-44</v>
+        <v>8.010449747449585e-44</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>7.92938828579247e-44</v>
+        <v>7.926657373351035e-44</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>7.792668014376781e-44</v>
+        <v>7.789675826256128e-44</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>7.599671665847409e-44</v>
+        <v>7.596501017288097e-44</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>7.347392326631793e-44</v>
+        <v>7.344128857569621e-44</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>7.032823083157883e-44</v>
+        <v>7.029555258223883e-44</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>6.652957021853838e-44</v>
+        <v>6.649776130374279e-44</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>6.206479170270051e-44</v>
+        <v>6.203477267541977e-44</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>5.70341745275931e-44</v>
+        <v>5.700673558211456e-44</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>5.158462273849771e-44</v>
+        <v>5.156036697817968e-44</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>4.586318371476104e-44</v>
+        <v>4.584252697762642e-44</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>4.001690483574992e-44</v>
+        <v>4.000007569448613e-44</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>3.419283348081039e-44</v>
+        <v>3.417987324276942e-44</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>2.85380170293044e-44</v>
+        <v>2.852877973650281e-44</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>2.319950286059329e-44</v>
+        <v>2.319365528971219e-44</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.832433835402405e-44</v>
+        <v>1.832136001640912e-44</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>1.405957088895838e-44</v>
+        <v>1.405875403061985e-44</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.055212670519483e-44</v>
+        <v>1.055257647082434e-44</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>7.881833651424744e-45</v>
+        <v>7.882558932231198e-45</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>5.950113362807672e-45</v>
+        <v>5.950268349528218e-45</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>4.629064053154154e-45</v>
+        <v>4.627987938487067e-45</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>3.79078393627149e-45</v>
+        <v>3.788000914876168e-45</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>3.307371225971021e-45</v>
+        <v>3.302590494467992e-45</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>3.050924136061555e-45</v>
+        <v>3.044039893032467e-45</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>2.893963806742059e-45</v>
+        <v>2.885054615251286e-45</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>2.75102772877292e-45</v>
+        <v>2.740293184977703e-45</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>2.613742303986833e-45</v>
+        <v>2.601386840756206e-45</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>2.48199199499809e-45</v>
+        <v>2.468212434509442e-45</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>2.355661264420967e-45</v>
+        <v>2.340646818160035e-45</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>2.234634574869399e-45</v>
+        <v>2.218566843630272e-45</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>2.118796388957667e-45</v>
+        <v>2.101849362842782e-45</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>2.00803116930003e-45</v>
+        <v>1.990371227720178e-45</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.902223378510452e-45</v>
+        <v>1.884009290184773e-45</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.801257479203199e-45</v>
+        <v>1.782640402159182e-45</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.705017933992518e-45</v>
+        <v>1.686141415566006e-45</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.613389205492399e-45</v>
+        <v>1.594389182327582e-45</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.526255756317094e-45</v>
+        <v>1.507260554366515e-45</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.44350204908084e-45</v>
+        <v>1.42463238360539e-45</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.365012546397649e-45</v>
+        <v>1.346381521966573e-45</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.290671710881827e-45</v>
+        <v>1.272384821372718e-45</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.220364005147404e-45</v>
+        <v>1.202519133746206e-45</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.15397389180861e-45</v>
+        <v>1.136661311009619e-45</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.091385833479665e-45</v>
+        <v>1.074688205085526e-45</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>1.032484292774619e-45</v>
+        <v>1.016476667896327e-45</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>9.771537323076918e-46</v>
+        <v>9.619035513645945e-46</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>9.252786146930932e-46</v>
+        <v>9.108457074128866e-46</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>8.76743402544893e-46</v>
+        <v>8.631799879636257e-46</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>8.31432558477302e-46</v>
+        <v>8.187832449393723e-46</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>7.892305451045202e-46</v>
+        <v>7.775323302626761e-46</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>7.500218250406353e-46</v>
+        <v>7.393040958559765e-46</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>7.136908608998805e-46</v>
+        <v>7.039753936418564e-46</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>6.801221152963546e-46</v>
+        <v>6.714230755427665e-46</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>6.492000508442538e-46</v>
+        <v>6.415239934812526e-46</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>6.208091301577666e-46</v>
+        <v>6.141549993798529e-46</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>5.948338158510046e-46</v>
+        <v>5.891929451610314e-46</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>5.711585705381577e-46</v>
+        <v>5.665146827473279e-46</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>5.496678568334078e-46</v>
+        <v>5.459970640612734e-46</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>5.302461373508792e-46</v>
+        <v>5.27516941025345e-46</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>5.127778747047554e-46</v>
+        <v>5.109511655620756e-46</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>4.97147531509213e-46</v>
+        <v>4.961765895939917e-46</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>4.832395703783869e-46</v>
+        <v>4.830700650435804e-46</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>4.709384539264658e-46</v>
+        <v>4.715084438333794e-46</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>4.601286447675905e-46</v>
+        <v>4.613685778858813e-46</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>4.506946055159363e-46</v>
+        <v>4.525273191236114e-46</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>4.425208156664704e-46</v>
+        <v>4.448615390617125e-46</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>4.355094136541305e-46</v>
+        <v>4.382686049859889e-46</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>4.296136296938064e-46</v>
+        <v>4.327051836309093e-46</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>4.247958804083024e-46</v>
+        <v>4.281386038947026e-46</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>4.210185824204106e-46</v>
+        <v>4.245361946755857e-46</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>4.182441523529365e-46</v>
+        <v>4.218652848717884e-46</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>4.164350068286814e-46</v>
+        <v>4.200932033815369e-46</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>4.155535624704429e-46</v>
+        <v>4.191872791030531e-46</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>4.155622359010236e-46</v>
+        <v>4.191148409345645e-46</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>4.16423443743223e-46</v>
+        <v>4.198432177742947e-46</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>4.18099602619843e-46</v>
+        <v>4.213397385204706e-46</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>4.205531291536838e-46</v>
+        <v>4.235717320713167e-46</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>4.23746439967543e-46</v>
+        <v>4.265065273250555e-46</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>4.276419516842266e-46</v>
+        <v>4.301114531799172e-46</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>4.322020809265284e-46</v>
+        <v>4.343538385341207e-46</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>4.373892443172572e-46</v>
+        <v>4.392010122858986e-46</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>4.431658584792096e-46</v>
+        <v>4.446203033334725e-46</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>4.494943400351803e-46</v>
+        <v>4.505790405750621e-46</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>4.563371056079814e-46</v>
+        <v>4.57044552908903e-46</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>4.636565718204078e-46</v>
+        <v>4.639841692332157e-46</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>4.714151552952527e-46</v>
+        <v>4.713652184462178e-46</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>4.795752726553311e-46</v>
+        <v>4.791550294461485e-46</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>4.880993405234364e-46</v>
+        <v>4.873209311312258e-46</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>4.969497755223612e-46</v>
+        <v>4.958302523996675e-46</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>5.060889942749221e-46</v>
+        <v>5.04650322149714e-46</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>5.15479413403903e-46</v>
+        <v>5.137484692795743e-46</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>5.250834495321219e-46</v>
+        <v>5.230920226874904e-46</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>5.348635192823702e-46</v>
+        <v>5.326483112716789e-46</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>5.447820392774402e-46</v>
+        <v>5.423846639303565e-46</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>5.548014261401499e-46</v>
+        <v>5.522684095617655e-46</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>5.648840964932913e-46</v>
+        <v>5.622668770641227e-46</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>5.749924669596556e-46</v>
+        <v>5.723473953356439e-46</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>5.850889541620616e-46</v>
+        <v>5.824772932745724e-46</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>5.951359747233009e-46</v>
+        <v>5.926238997791244e-46</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>6.05095945266165e-46</v>
+        <v>6.027545437475159e-46</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>6.149312824134725e-46</v>
+        <v>6.128365540779904e-46</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>6.246044027880062e-46</v>
+        <v>6.228372596687547e-46</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>6.340777230125842e-46</v>
+        <v>6.327239894180521e-46</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>6.433136592646628e-46</v>
+        <v>6.424640716303353e-46</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>6.522618462508341e-46</v>
+        <v>6.520077931451516e-46</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>6.608257116308631e-46</v>
+        <v>6.612438332002991e-46</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>6.68898244749621e-46</v>
+        <v>6.700469536856542e-46</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>6.763724349519494e-46</v>
+        <v>6.782919164910601e-46</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>6.83141271582718e-46</v>
+        <v>6.858534835063918e-46</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>6.890977439867754e-46</v>
+        <v>6.926064166215002e-46</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>6.941348415089739e-46</v>
+        <v>6.984254777262402e-46</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>6.98145553494178e-46</v>
+        <v>7.031854287104816e-46</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>7.010228692872392e-46</v>
+        <v>7.06761031464078e-46</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>7.026597782330125e-46</v>
+        <v>7.090270478768878e-46</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>7.029492696763567e-46</v>
+        <v>7.098582398387737e-46</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>7.017843329621255e-46</v>
+        <v>7.091293692395924e-46</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>6.990579574351784e-46</v>
+        <v>7.067151979692071e-46</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>6.946631324403662e-46</v>
+        <v>7.024904879174718e-46</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>6.884928473225534e-46</v>
+        <v>6.963300009742546e-46</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>6.804400914265844e-46</v>
+        <v>6.881084990294031e-46</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>6.703978540973199e-46</v>
+        <v>6.777007439727813e-46</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>6.58272134810877e-46</v>
+        <v>6.649963164463703e-46</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>6.441973469695005e-46</v>
+        <v>6.501449642868398e-46</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>6.28502770778464e-46</v>
+        <v>6.335183918040918e-46</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>6.115239340374472e-46</v>
+        <v>6.154954194201574e-46</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>5.935963645460833e-46</v>
+        <v>5.964548675570184e-46</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>5.750555901040501e-46</v>
+        <v>5.767755566367043e-46</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>5.562371385110291e-46</v>
+        <v>5.568363070812475e-46</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>5.374765375666499e-46</v>
+        <v>5.370159393126263e-46</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>5.191093150706092e-46</v>
+        <v>5.176932737528896e-46</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>5.014709988225375e-46</v>
+        <v>4.992471308240166e-46</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>4.848971166221155e-46</v>
+        <v>4.820563309480396e-46</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>4.6972319626902e-46</v>
+        <v>4.664996945469856e-46</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>4.562847655628871e-46</v>
+        <v>4.529560420428407e-46</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>4.449173523033951e-46</v>
+        <v>4.41804193857634e-46</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>4.359550595967944e-46</v>
+        <v>4.334213560232113e-46</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>4.294874259694023e-46</v>
+        <v>4.27907606419265e-46</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>4.250841718760179e-46</v>
+        <v>4.247739915062255e-46</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>4.222485206621839e-46</v>
+        <v>4.234562065999818e-46</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>4.204836956734355e-46</v>
+        <v>4.233899470164202e-46</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>4.192929202553174e-46</v>
+        <v>4.240109080714305e-46</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>4.181794177533681e-46</v>
+        <v>4.247547850809028e-46</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>4.166464115131291e-46</v>
+        <v>4.250572733607249e-46</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>4.141971248801407e-46</v>
+        <v>4.243540682267853e-46</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>4.103489914152014e-46</v>
+        <v>4.220948820938813e-46</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>4.05066829846507e-46</v>
+        <v>4.181707325948215e-46</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>3.988422573707675e-46</v>
+        <v>4.129922766574385e-46</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>3.921971171088484e-46</v>
+        <v>4.069999863644316e-46</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>3.856532521816325e-46</v>
+        <v>4.006343337985142e-46</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>3.797325057100022e-46</v>
+        <v>3.943357910424007e-46</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>3.749567208148239e-46</v>
+        <v>3.885448301787886e-46</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>3.717957901479634e-46</v>
+        <v>3.836671117560471e-46</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>3.698416838117896e-46</v>
+        <v>3.795200084482967e-46</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>3.679550953549362e-46</v>
+        <v>3.754308711964895e-46</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>3.649744045126904e-46</v>
+        <v>3.707120986592597e-46</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>3.597379910203431e-46</v>
+        <v>3.646760894952436e-46</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>3.514077951443546e-46</v>
+        <v>3.568137699681074e-46</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>3.405935014292983e-46</v>
+        <v>3.474148730369738e-46</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>3.283095509809213e-46</v>
+        <v>3.369924599489514e-46</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>3.155704037722528e-46</v>
+        <v>3.260596023613612e-46</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>3.032319800265628e-46</v>
+        <v>3.150545009437121e-46</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>2.914434211121761e-46</v>
+        <v>3.04081577416591e-46</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>2.801569867630039e-46</v>
+        <v>2.931522754148306e-46</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>2.693249283758375e-46</v>
+        <v>2.822780346360287e-46</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>2.588994973474383e-46</v>
+        <v>2.714702947777529e-46</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>2.488329450745979e-46</v>
+        <v>2.607404955376011e-46</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>2.39077522954106e-46</v>
+        <v>2.501000766131702e-46</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>2.295854823827266e-46</v>
+        <v>2.395604777020288e-46</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>2.203090747572581e-46</v>
+        <v>2.291331385017836e-46</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>2.11200551474465e-46</v>
+        <v>2.188294987100033e-46</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>2.022121639311374e-46</v>
+        <v>2.086609980242851e-46</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>1.932961635240563e-46</v>
+        <v>1.986390761422166e-46</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>1.844048016500113e-46</v>
+        <v>1.887751727613944e-46</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.754928775732455e-46</v>
+        <v>1.790815661061753e-46</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.665767167050387e-46</v>
+        <v>1.695907832258311e-46</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.577358409727214e-46</v>
+        <v>1.603561497284138e-46</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.490526543200893e-46</v>
+        <v>1.514319397203074e-46</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.406095606909373e-46</v>
+        <v>1.428724273078946e-46</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.324889640290376e-46</v>
+        <v>1.347318865975354e-46</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.247732682781857e-46</v>
+        <v>1.270645916956128e-46</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.175448773821752e-46</v>
+        <v>1.199248167085084e-46</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.108861952847805e-46</v>
+        <v>1.133668357425845e-46</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.048796259297961e-46</v>
+        <v>1.074449229042232e-46</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>9.960757326101377e-47</v>
+        <v>1.02213352299804e-46</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>9.515244122221149e-47</v>
+        <v>9.772639803569289e-47</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>9.159663375718469e-47</v>
+        <v>9.403833421827304e-47</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>8.901040402582656e-47</v>
+        <v>9.1200662199307e-47</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>8.739517129295316e-47</v>
+        <v>8.924917574318745e-47</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>8.672814399244249e-47</v>
+        <v>8.821414381083342e-47</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>8.698650380045222e-47</v>
+        <v>8.812582925716977e-47</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>8.81474323931423e-47</v>
+        <v>8.901449493712447e-47</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>9.018811144666938e-47</v>
+        <v>9.091040370562205e-47</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>9.308572263719604e-47</v>
+        <v>9.384381841759256e-47</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>9.681744764087975e-47</v>
+        <v>9.784500192796147e-47</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.013604724835997e-46</v>
+        <v>1.029442212668812e-46</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.074771959394879e-46</v>
+        <v>1.099254565487544e-46</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.189057094673739e-46</v>
+        <v>1.22429007421953e-46</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>1.40037815542149e-46</v>
+        <v>1.447207540088966e-46</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.719644905537947e-46</v>
+        <v>1.777749664389012e-46</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>2.105195970742752e-46</v>
+        <v>2.173234791802939e-46</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>2.510679024444201e-46</v>
+        <v>2.586303412105009e-46</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>2.889741740049535e-46</v>
+        <v>2.969596015068396e-46</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>3.196031790966092e-46</v>
+        <v>3.275753090466387e-46</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>3.383763350291256e-46</v>
+        <v>3.458006897903556e-46</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>3.443270419280619e-46</v>
+        <v>3.507320740782671e-46</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>3.422132998048271e-46</v>
+        <v>3.474457522901554e-46</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>3.373005773370909e-46</v>
+        <v>3.415481203862858e-46</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>3.348543432025287e-46</v>
+        <v>3.386455743269335e-46</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>3.396092862353797e-46</v>
+        <v>3.437700883116004e-46</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>3.511469261442885e-46</v>
+        <v>3.563767622117995e-46</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>3.661509910803704e-46</v>
+        <v>3.727846413758583e-46</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>3.81272916000712e-46</v>
+        <v>3.892778227387394e-46</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>3.931641358624429e-46</v>
+        <v>4.021404032354512e-46</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>3.987073063279071e-46</v>
+        <v>4.079188468848396e-46</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>3.973860849682485e-46</v>
+        <v>4.061109852540276e-46</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>3.903218148961576e-46</v>
+        <v>3.980729384201388e-46</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>3.7866137582674e-46</v>
+        <v>3.851898029479354e-46</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>3.635516474750677e-46</v>
+        <v>3.68846675402142e-46</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>3.461332126601971e-46</v>
+        <v>3.504197301970447e-46</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>3.272578599659942e-46</v>
+        <v>3.30875945596429e-46</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>3.073745752043238e-46</v>
+        <v>3.106115635971401e-46</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>2.869024512885254e-46</v>
+        <v>2.899804705755896e-46</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>2.662605811319406e-46</v>
+        <v>2.693365529081898e-46</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>2.45868057647855e-46</v>
+        <v>2.490336969712975e-46</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>2.261439737496274e-46</v>
+        <v>2.294257891413428e-46</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>2.075018262984337e-46</v>
+        <v>2.108620274044602e-46</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.901597362851501e-46</v>
+        <v>1.935279232224285e-46</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.740941538619923e-46</v>
+        <v>1.774065154612034e-46</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.592665426853918e-46</v>
+        <v>1.624682872529902e-46</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.456383664118236e-46</v>
+        <v>1.486837217300381e-46</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.331710886977585e-46</v>
+        <v>1.360233020245922e-46</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.218261731996343e-46</v>
+        <v>1.24457511268864e-46</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>1.115650835739227e-46</v>
+        <v>1.139568325950996e-46</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>1.023492834770919e-46</v>
+        <v>1.044917491355412e-46</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>9.414023656558514e-47</v>
+        <v>9.603274402240602e-47</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>8.689940649587761e-47</v>
+        <v>8.855030038794363e-47</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>8.058825692441632e-47</v>
+        <v>8.201490136437468e-47</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>7.516825150766836e-47</v>
+        <v>7.639703008394059e-47</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>7.059884266290487e-47</v>
+        <v>7.166491219939154e-47</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>6.678492592690644e-47</v>
+        <v>6.772553696797754e-47</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>6.357178800880792e-47</v>
+        <v>6.441898678365061e-47</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>6.080169150437179e-47</v>
+        <v>6.158194967835177e-47</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>5.831689900934956e-47</v>
+        <v>5.905111368401089e-47</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>5.59596731195003e-47</v>
+        <v>5.666316683256551e-47</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>5.357227643058257e-47</v>
+        <v>5.425479715595265e-47</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>5.099697153834862e-47</v>
+        <v>5.166269268610292e-47</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>4.80761214590172e-47</v>
+        <v>4.872364386946029e-47</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>4.473192946294328e-47</v>
+        <v>4.535586679270352e-47</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>4.110989352014583e-47</v>
+        <v>4.170530619991452e-47</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>3.739424929979057e-47</v>
+        <v>3.795741374792702e-47</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>3.376923247104354e-47</v>
+        <v>3.429764109357505e-47</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>3.041907870306094e-47</v>
+        <v>3.091143989368271e-47</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>2.752802366501134e-47</v>
+        <v>2.798426180508659e-47</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>2.528030302605226e-47</v>
+        <v>2.57015584846121e-47</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>2.38601524553494e-47</v>
+        <v>2.424878158909298e-47</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>2.345180762206553e-47</v>
+        <v>2.381138277535993e-47</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>2.423950419536262e-47</v>
+        <v>2.457481370024286e-47</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>2.640747784440441e-47</v>
+        <v>2.67245260205735e-47</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>3.013996423834966e-47</v>
+        <v>3.044597139317857e-47</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>3.562119904636783e-47</v>
+        <v>3.592460147489549e-47</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>4.307636721947972e-47</v>
+        <v>4.338763982862695e-47</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>5.324305550314239e-47</v>
+        <v>5.358500537741624e-47</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>6.720756227475068e-47</v>
+        <v>6.762233389389566e-47</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>8.606286940429824e-47</v>
+        <v>8.661207890701529e-47</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>1.109019587618391e-46</v>
+        <v>1.116666939457861e-46</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>1.428178122173797e-46</v>
+        <v>1.43898632539171e-46</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>1.814351662055203e-46</v>
+        <v>1.829265949465977e-46</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>2.129566927377937e-46</v>
+        <v>2.147140354227084e-46</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>2.163918091159299e-46</v>
+        <v>2.179061850679931e-46</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>1.939683466286614e-46</v>
+        <v>1.947507295386236e-46</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.978273675801823e-46</v>
+        <v>1.98276531291888e-46</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>2.186996666846282e-46</v>
+        <v>2.191544002553496e-46</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>2.396018090374004e-46</v>
+        <v>2.402190048882602e-46</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>2.450674238241184e-46</v>
+        <v>2.458317089168085e-46</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>2.356222392932276e-46</v>
+        <v>2.364475019759521e-46</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>2.213790376058085e-46</v>
+        <v>2.221692916275585e-46</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>2.124865841645861e-46</v>
+        <v>2.131373720933942e-46</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>2.12040248435768e-46</v>
+        <v>2.124820543159906e-46</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>2.116213596824502e-46</v>
+        <v>2.118885033143859e-46</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>2.072107993087908e-46</v>
+        <v>2.073803443854568e-46</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.994545630722293e-46</v>
+        <v>1.995889149481684e-46</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.891447520322127e-46</v>
+        <v>1.892898599604179e-46</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.77073467248208e-46</v>
+        <v>1.772588243801227e-46</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>1.640328097796889e-46</v>
+        <v>1.642714531652065e-46</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>1.508148806860927e-46</v>
+        <v>1.51103391273557e-46</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>1.381806525346297e-46</v>
+        <v>1.385000242273264e-46</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>1.264446304092021e-46</v>
+        <v>1.267727347058383e-46</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>1.155872422429538e-46</v>
+        <v>1.159081551242331e-46</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>1.055808597910665e-46</v>
+        <v>1.058850866349763e-46</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>9.639785480871872e-47</v>
+        <v>9.668233039053017e-47</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>8.801059905106474e-47</v>
+        <v>8.827868754333277e-47</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>8.039146427329037e-47</v>
+        <v>8.065295924585379e-47</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>7.351282223055251e-47</v>
+        <v>7.37839466505339e-47</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>6.734708329437609e-47</v>
+        <v>6.765046992464729e-47</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>6.187760738369283e-47</v>
+        <v>6.223674082752864e-47</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>5.711370492634197e-47</v>
+        <v>5.753974923184952e-47</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>5.306844606670266e-47</v>
+        <v>5.355833630670323e-47</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>4.97549009491515e-47</v>
+        <v>5.029134322118049e-47</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>4.718053639896253e-47</v>
+        <v>4.773268396794568e-47</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>4.52586380463662e-47</v>
+        <v>4.579345602405146e-47</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>4.38243099348287e-47</v>
+        <v>4.431600931457989e-47</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>4.271028752348873e-47</v>
+        <v>4.31406109931968e-47</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>4.17493062714899e-47</v>
+        <v>4.210752821357303e-47</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>4.077410163797182e-47</v>
+        <v>4.105702812937527e-47</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>3.961740908207665e-47</v>
+        <v>3.982937789427286e-47</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>3.812950385749836e-47</v>
+        <v>3.828194586579321e-47</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>3.633935289441514e-47</v>
+        <v>3.644632380973959e-47</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>3.438026742864374e-47</v>
+        <v>3.445583861981991e-47</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>3.238686628039521e-47</v>
+        <v>3.244509207738238e-47</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>3.049376826987509e-47</v>
+        <v>3.054868596376969e-47</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>2.883502389670106e-47</v>
+        <v>2.890063534540223e-47</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>2.745739834296121e-47</v>
+        <v>2.754484488381423e-47</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>2.622713080770763e-47</v>
+        <v>2.63388503312635e-47</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>2.499508172173429e-47</v>
+        <v>2.512452303128403e-47</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>2.370904721532505e-47</v>
+        <v>2.384675077568594e-47</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>2.238774344261706e-47</v>
+        <v>2.252579017300446e-47</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>2.105150931141947e-47</v>
+        <v>2.1183622380322e-47</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.972068372954266e-47</v>
+        <v>1.984222855472218e-47</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.841560560479335e-47</v>
+        <v>1.852358985328498e-47</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.715661384498303e-47</v>
+        <v>1.724968743309513e-47</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.596392356811807e-47</v>
+        <v>1.604236960156469e-47</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.484937937863444e-47</v>
+        <v>1.491450153546983e-47</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.38112781073431e-47</v>
+        <v>1.386440911011222e-47</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>1.284668148192056e-47</v>
+        <v>1.288909270353342e-47</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.195265123004622e-47</v>
+        <v>1.198555269377788e-47</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.112624907939921e-47</v>
+        <v>1.115078945888977e-47</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.036453675765644e-47</v>
+        <v>1.038180337691105e-47</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>9.664575992497111e-48</v>
+        <v>9.675594825885949e-48</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>9.023428511600178e-48</v>
+        <v>9.02916418385849e-48</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>8.438156042642907e-48</v>
+        <v>8.439511828870964e-48</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>7.905820313304763e-48</v>
+        <v>7.903638138967892e-48</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>7.423483051263205e-48</v>
+        <v>7.418543492191766e-48</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>6.988205984197145e-48</v>
+        <v>6.981228266586551e-48</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>6.597050839785331e-48</v>
+        <v>6.588692840196037e-48</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>6.247079345705472e-48</v>
+        <v>6.237937591062977e-48</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>5.935353229636348e-48</v>
+        <v>5.925962897231194e-48</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>5.658934219256608e-48</v>
+        <v>5.649769136744384e-48</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>5.414884042244168e-48</v>
+        <v>5.406356687645502e-48</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>5.200264426277702e-48</v>
+        <v>5.192725927978273e-48</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>5.012137099035784e-48</v>
+        <v>5.005877235786308e-48</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>4.847563788196486e-48</v>
+        <v>4.842810989112729e-48</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>4.703606221438522e-48</v>
+        <v>4.700527566001291e-48</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>4.577326126440049e-48</v>
+        <v>4.576027344495196e-48</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>4.465785230879615e-48</v>
+        <v>4.466310702638038e-48</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>4.366045262435632e-48</v>
+        <v>4.368378018473272e-48</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>4.275167948786592e-48</v>
+        <v>4.279229670044431e-48</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>4.190215017610744e-48</v>
+        <v>4.195866035394813e-48</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>4.108592303290441e-48</v>
+        <v>4.115640002294419e-48</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>4.029621999846694e-48</v>
+        <v>4.037867615302877e-48</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>3.953289496721277e-48</v>
+        <v>3.962544309511139e-48</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>3.879580824213354e-48</v>
+        <v>3.889666176517162e-48</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>3.808482012621891e-48</v>
+        <v>3.819229307918708e-48</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>3.739979092246052e-48</v>
+        <v>3.751229795313738e-48</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>3.674058093384998e-48</v>
+        <v>3.685663730300203e-48</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.610705046337706e-48</v>
+        <v>3.622527204475878e-48</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.549905981403335e-48</v>
+        <v>3.561816309438719e-48</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.491646928881035e-48</v>
+        <v>3.503527136786668e-48</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>3.435913919069801e-48</v>
+        <v>3.447655778117518e-48</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>3.38269298226883e-48</v>
+        <v>3.394198325029258e-48</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>3.331970148777127e-48</v>
+        <v>3.343150869119689e-48</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>3.283731448893837e-48</v>
+        <v>3.294509501986752e-48</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>3.237962912918101e-48</v>
+        <v>3.248270315228382e-48</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>3.194650571148934e-48</v>
+        <v>3.204429400442388e-48</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>3.153780453885476e-48</v>
+        <v>3.16298284922671e-48</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>3.115338591426861e-48</v>
+        <v>3.123926753179272e-48</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>3.079311014072116e-48</v>
+        <v>3.087257203897897e-48</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>3.045683752120378e-48</v>
+        <v>3.052970292980518e-48</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>3.014442835870771e-48</v>
+        <v>3.021062112025054e-48</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>2.985574295622337e-48</v>
+        <v>2.991528752629343e-48</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>2.959064161674228e-48</v>
+        <v>2.964366306391329e-48</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>2.934898464325493e-48</v>
+        <v>2.939570864908859e-48</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>2.913063233875257e-48</v>
+        <v>2.917138519779851e-48</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>2.893544500622635e-48</v>
+        <v>2.897065362602216e-48</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>2.876328294866688e-48</v>
+        <v>2.879347484973811e-48</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>2.861400646906537e-48</v>
+        <v>2.863980978492551e-48</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>2.848747587041288e-48</v>
+        <v>2.850961934756337e-48</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>2.838355145570017e-48</v>
+        <v>2.840286445363041e-48</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>2.830209352791837e-48</v>
+        <v>2.831950601910568e-48</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>2.824296239005849e-48</v>
+        <v>2.825950495996819e-48</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>2.820601834511141e-48</v>
+        <v>2.822282219219674e-48</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>2.819112169606819e-48</v>
+        <v>2.820941863177034e-48</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>2.819813274591979e-48</v>
+        <v>2.82192551946679e-48</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>2.822794647975516e-48</v>
+        <v>2.82532711497313e-48</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>2.828634681311378e-48</v>
+        <v>2.831702853748492e-48</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>2.838056024424363e-48</v>
+        <v>2.841745344536731e-48</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>2.851781348048418e-48</v>
+        <v>2.856147215852537e-48</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>2.870533322917444e-48</v>
+        <v>2.875601096210552e-48</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>2.895034619765405e-48</v>
+        <v>2.900799614125482e-48</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>2.926007909326215e-48</v>
+        <v>2.932435398111982e-48</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>2.964175862333763e-48</v>
+        <v>2.971201076684684e-48</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>3.01026114952205e-48</v>
+        <v>3.017789278358329e-48</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>3.064986441624971e-48</v>
+        <v>3.072892631647556e-48</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>3.129074409376395e-48</v>
+        <v>3.137203765066973e-48</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>3.203184705982048e-48</v>
+        <v>3.211353561407322e-48</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>3.286851338831871e-48</v>
+        <v>3.294869975150853e-48</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>3.378637661384387e-48</v>
+        <v>3.386329896347556e-48</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>3.477075221360166e-48</v>
+        <v>3.484279051205068e-48</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>3.580695566479444e-48</v>
+        <v>3.587263165930687e-48</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>3.688030244462815e-48</v>
+        <v>3.69382796673207e-48</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>3.797610803030594e-48</v>
+        <v>3.802519179816599e-48</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>3.90796878990309e-48</v>
+        <v>3.911882531391646e-48</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>4.017635752800908e-48</v>
+        <v>4.020463747664881e-48</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>4.125143239444359e-48</v>
+        <v>4.126808554843675e-48</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>4.229022797553755e-48</v>
+        <v>4.229462679135411e-48</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>4.327805974849695e-48</v>
+        <v>4.326971846747745e-48</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>4.420024319052487e-48</v>
+        <v>4.417881783888053e-48</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>4.504209377882471e-48</v>
+        <v>4.50073821676374e-48</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>4.578892699060201e-48</v>
+        <v>4.574086871582422e-48</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>4.643705845796254e-48</v>
+        <v>4.637576262824789e-48</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>4.703355443302766e-48</v>
+        <v>4.695942759561924e-48</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>4.764010743046918e-48</v>
+        <v>4.755389043927394e-48</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>4.831841133020321e-48</v>
+        <v>4.822117934923326e-48</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>4.913016001214771e-48</v>
+        <v>4.902332251552029e-48</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>5.013704735621892e-48</v>
+        <v>5.002234812815645e-48</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>5.140076724233232e-48</v>
+        <v>5.128028437716242e-48</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>5.298301355040697e-48</v>
+        <v>5.285915945256235e-48</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>5.494540564714636e-48</v>
+        <v>5.482092587947702e-48</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>5.732648057750335e-48</v>
+        <v>5.720409709727387e-48</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>6.01091315689213e-48</v>
+        <v>5.999068268819833e-48</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>6.326803567374636e-48</v>
+        <v>6.315434906890155e-48</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>6.677786994432319e-48</v>
+        <v>6.666876265603325e-48</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>7.061331143300627e-48</v>
+        <v>7.050758986625288e-48</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>7.474903719214061e-48</v>
+        <v>7.464449711621051e-48</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>7.915972427407023e-48</v>
+        <v>7.905315082255515e-48</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>8.382004973115112e-48</v>
+        <v>8.370721740194782e-48</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>8.870128896922722e-48</v>
+        <v>8.857712040162708e-48</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>9.37332086719834e-48</v>
+        <v>9.359371213021396e-48</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>9.881783232777443e-48</v>
+        <v>9.866139665737239e-48</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>1.03856675763973e-47</v>
+        <v>1.036840940876426e-47</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>1.087512548079655e-47</v>
+        <v>1.085657245255782e-47</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.134030852871246e-47</v>
+        <v>1.132102080757195e-47</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>1.177136830288239e-47</v>
+        <v>1.175214648426073e-47</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>1.215845638604483e-47</v>
+        <v>1.214034149307941e-47</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>1.249172436093712e-47</v>
+        <v>1.247599784448206e-47</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>1.276126310935642e-47</v>
+        <v>1.274941431712155e-47</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>1.295629936288963e-47</v>
+        <v>1.294956242387288e-47</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>1.306541649332944e-47</v>
+        <v>1.306442552829748e-47</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>1.307718253812622e-47</v>
+        <v>1.308196344163019e-47</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>1.298016553473004e-47</v>
+        <v>1.299013597510551e-47</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>1.276293352059133e-47</v>
+        <v>1.277690293995831e-47</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>1.241406288580775e-47</v>
+        <v>1.243023267505893e-47</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>1.193568222580026e-47</v>
+        <v>1.195192964373081e-47</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>1.137103122054745e-47</v>
+        <v>1.138577067237564e-47</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>1.077111584036136e-47</v>
+        <v>1.078346158175653e-47</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>1.018694205180977e-47</v>
+        <v>1.019670818884528e-47</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>9.659356334186429e-48</v>
+        <v>9.666929261251214e-48</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>9.189438204680588e-48</v>
+        <v>9.195277292200783e-48</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>8.768538539598924e-48</v>
+        <v>8.773053981638299e-48</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>8.388008215246498e-48</v>
+        <v>8.391561029506447e-48</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>8.039198107929518e-48</v>
+        <v>8.042100135749059e-48</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>7.713459093953807e-48</v>
+        <v>7.715973000309577e-48</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>7.402142049625441e-48</v>
+        <v>7.40448132313171e-48</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>7.096597851249686e-48</v>
+        <v>7.098926804158345e-48</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>6.78817737513292e-48</v>
+        <v>6.790611143333487e-48</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>6.469625214554976e-48</v>
+        <v>6.472232962301691e-48</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>6.141711133567448e-48</v>
+        <v>6.144534506639238e-48</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>5.808071443587805e-48</v>
+        <v>5.811131160656682e-48</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>5.472346033594539e-48</v>
+        <v>5.475641894451888e-48</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>5.138174792567044e-48</v>
+        <v>5.141685678123621e-48</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>4.809197609484705e-48</v>
+        <v>4.812881481770636e-48</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>4.489054373326024e-48</v>
+        <v>4.492848275490806e-48</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>4.181384973070393e-48</v>
+        <v>4.185205029382894e-48</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>3.889811244479395e-48</v>
+        <v>3.893552821346638e-48</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>3.616204601385021e-48</v>
+        <v>3.619757919572352e-48</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>3.35924840632486e-48</v>
+        <v>3.362526975562443e-48</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>3.117287626115982e-48</v>
+        <v>3.120231263290229e-48</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>2.888667227576152e-48</v>
+        <v>2.89124205672973e-48</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>2.671732177523091e-48</v>
+        <v>2.673930629854919e-48</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>2.464827442773938e-48</v>
+        <v>2.466668256639187e-48</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>2.266297990146423e-48</v>
+        <v>2.267826211056516e-48</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>2.074488786458244e-48</v>
+        <v>2.075775767080857e-48</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>1.887808368756047e-48</v>
+        <v>1.888950632009054e-48</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>1.706172566108102e-48</v>
+        <v>1.707264848367997e-48</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>1.531030033372696e-48</v>
+        <v>1.532137871030639e-48</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>1.363898102842636e-48</v>
+        <v>1.365056604059846e-48</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.206294106811342e-48</v>
+        <v>1.207507951519094e-48</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.059735377571653e-48</v>
+        <v>1.060978817471277e-48</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>9.257392474168389e-49</v>
+        <v>9.26956105979723e-49</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>8.058230486401225e-49</v>
+        <v>8.069267211077114e-49</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>7.015041135344108e-49</v>
+        <v>7.023775669182056e-49</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>6.141565294307166e-49</v>
+        <v>6.146710518458755e-49</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>5.445356785566806e-49</v>
+        <v>5.446318615351293e-49</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>4.932299378170385e-49</v>
+        <v>4.929395356347376e-49</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>4.608195957396009e-49</v>
+        <v>4.602646932769267e-49</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>4.473630267563917e-49</v>
+        <v>4.46702305382461e-49</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>4.517649051261259e-49</v>
+        <v>4.511116704137386e-49</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>4.707900934454319e-49</v>
+        <v>4.702274785051386e-49</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>5.00389601870655e-49</v>
+        <v>4.999795624656093e-49</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>5.365124726587699e-49</v>
+        <v>5.362958089549616e-49</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>5.751086797915053e-49</v>
+        <v>5.751050448611071e-49</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>6.121497235460624e-49</v>
+        <v>6.12357819826268e-49</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>6.436286843138258e-49</v>
+        <v>6.440264605568609e-49</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>6.65539584974542e-49</v>
+        <v>6.660842448492455e-49</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>6.738764484080484e-49</v>
+        <v>6.745044504998732e-49</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>6.646365581801201e-49</v>
+        <v>6.652636240456833e-49</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>6.372061331829563e-49</v>
+        <v>6.377356187027659e-49</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>6.007689792961656e-49</v>
+        <v>6.011160766875344e-49</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>5.66269121330077e-49</v>
+        <v>5.663652072423576e-49</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>5.440944563664822e-49</v>
+        <v>5.438887351539592e-49</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>5.34198796596063e-49</v>
+        <v>5.336891314525616e-49</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>5.272642470354301e-49</v>
+        <v>5.265245564794817e-49</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>5.136502776154092e-49</v>
+        <v>5.128314888278819e-49</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>4.858872819809167e-49</v>
+        <v>4.851945933366294e-49</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>4.456955712346373e-49</v>
+        <v>4.452922004367158e-49</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>3.972267829095095e-49</v>
+        <v>3.972085021573043e-49</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>3.446325700151271e-49</v>
+        <v>3.450277058421172e-49</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>2.920645855610986e-49</v>
+        <v>2.928340188348911e-49</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>2.436741897610477e-49</v>
+        <v>2.447113612639059e-49</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>2.02562911226337e-49</v>
+        <v>2.037138308662706e-49</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>1.68423610681792e-49</v>
+        <v>1.695518248217208e-49</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>1.402585442006776e-49</v>
+        <v>1.412582982020432e-49</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>1.170699678563532e-49</v>
+        <v>1.178662060791191e-49</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>9.786013772216056e-50</v>
+        <v>9.840850352481218e-50</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>8.163130987139131e-50</v>
+        <v>8.191814561093554e-50</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>6.738575626676133e-50</v>
+        <v>6.742810343467821e-50</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>5.486673791170956e-50</v>
+        <v>5.471863959511072e-50</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>4.557659819685946e-50</v>
+        <v>4.532982734040704e-50</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>3.921257440249764e-50</v>
+        <v>3.894532907930606e-50</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>3.509750899409678e-50</v>
+        <v>3.486568774280189e-50</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>3.255424443711981e-50</v>
+        <v>3.239144626187901e-50</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.090562319704248e-50</v>
+        <v>3.082314756753458e-50</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>2.956732640825274e-50</v>
+        <v>2.955740709950482e-50</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>2.839520240581285e-50</v>
+        <v>2.844633979712727e-50</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>2.737541763994053e-50</v>
+        <v>2.747691807242579e-50</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>2.649415856595256e-50</v>
+        <v>2.663613503935918e-50</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>2.573761163916858e-50</v>
+        <v>2.59109838118889e-50</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>2.509196331490779e-50</v>
+        <v>2.5288457503976e-50</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>2.454340004848766e-50</v>
+        <v>2.47555492295799e-50</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>2.407810829522747e-50</v>
+        <v>2.429925210266174e-50</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>2.368227451044621e-50</v>
+        <v>2.390655923718238e-50</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>2.334208514946181e-50</v>
+        <v>2.356446374710165e-50</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>2.304372666759357e-50</v>
+        <v>2.325995874638073e-50</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>2.277340236075233e-50</v>
+        <v>2.298005355858125e-50</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>2.252055163871202e-50</v>
+        <v>2.271487236892291e-50</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>2.228167655339722e-50</v>
+        <v>2.246133737844624e-50</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>2.205421082767758e-50</v>
+        <v>2.221726755086066e-50</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>2.183558818442342e-50</v>
+        <v>2.198048184987621e-50</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>2.162324234650501e-50</v>
+        <v>2.174879923920296e-50</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>2.141460703679205e-50</v>
+        <v>2.152003868255032e-50</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>2.120711597815484e-50</v>
+        <v>2.129201914362835e-50</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>2.099820289346363e-50</v>
+        <v>2.106255958614709e-50</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>2.078530150558816e-50</v>
+        <v>2.082947897381598e-50</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>2.05658455373989e-50</v>
+        <v>2.059059627034529e-50</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>2.033726871176553e-50</v>
+        <v>2.034373043944442e-50</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>2.009700475155834e-50</v>
+        <v>2.008670044482342e-50</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>1.984248737964765e-50</v>
+        <v>1.981732525019238e-50</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>1.957115031890309e-50</v>
+        <v>1.953342381926067e-50</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>1.928042729219498e-50</v>
+        <v>1.923281511573835e-50</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>1.896775202239368e-50</v>
+        <v>1.891331810333557e-50</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>1.863055823236874e-50</v>
+        <v>1.85727517457616e-50</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>1.82662796449905e-50</v>
+        <v>1.820893500672654e-50</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>1.787521963166737e-50</v>
+        <v>1.782238489333646e-50</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>1.747091758473766e-50</v>
+        <v>1.742606291883992e-50</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>1.707072651169429e-50</v>
+        <v>1.703651615724188e-50</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>1.669199977413442e-50</v>
+        <v>1.667029201547603e-50</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>1.635209073365628e-50</v>
+        <v>1.634393790047715e-50</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>1.606835275185775e-50</v>
+        <v>1.607400121917964e-50</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>1.585813919033686e-50</v>
+        <v>1.587702937851805e-50</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>1.57388034106911e-50</v>
+        <v>1.576956978542642e-50</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>1.572769877451853e-50</v>
+        <v>1.576816984683931e-50</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>1.584217864341699e-50</v>
+        <v>1.588937696969112e-50</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>1.609959637898442e-50</v>
+        <v>1.614973856091632e-50</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>1.651730534281824e-50</v>
+        <v>1.656580202744885e-50</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>1.711265889651708e-50</v>
+        <v>1.715411477622386e-50</v>
       </c>
     </row>
   </sheetData>
